--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Jam2-Jam3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Jam2-Jam3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>91.47356466666668</v>
+        <v>113.5893336666667</v>
       </c>
       <c r="H2">
-        <v>274.420694</v>
+        <v>340.768001</v>
       </c>
       <c r="I2">
-        <v>0.7914295280104694</v>
+        <v>0.8306211829777892</v>
       </c>
       <c r="J2">
-        <v>0.7914295280104694</v>
+        <v>0.8306211829777892</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.944289</v>
+        <v>17.040132</v>
       </c>
       <c r="N2">
-        <v>50.832867</v>
+        <v>51.12039599999999</v>
       </c>
       <c r="O2">
-        <v>0.2968502282295034</v>
+        <v>0.3748878535193673</v>
       </c>
       <c r="P2">
-        <v>0.2968502282295034</v>
+        <v>0.3748878535193674</v>
       </c>
       <c r="Q2">
-        <v>1549.954515572189</v>
+        <v>1935.577239472044</v>
       </c>
       <c r="R2">
-        <v>13949.5906401497</v>
+        <v>17420.1951552484</v>
       </c>
       <c r="S2">
-        <v>0.234936036017476</v>
+        <v>0.311389792374261</v>
       </c>
       <c r="T2">
-        <v>0.234936036017476</v>
+        <v>0.3113897923742611</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>91.47356466666668</v>
+        <v>113.5893336666667</v>
       </c>
       <c r="H3">
-        <v>274.420694</v>
+        <v>340.768001</v>
       </c>
       <c r="I3">
-        <v>0.7914295280104694</v>
+        <v>0.8306211829777892</v>
       </c>
       <c r="J3">
-        <v>0.7914295280104694</v>
+        <v>0.8306211829777892</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>23.625738</v>
       </c>
       <c r="O3">
-        <v>0.1379679355364798</v>
+        <v>0.1732576994636535</v>
       </c>
       <c r="P3">
-        <v>0.1379679355364798</v>
+        <v>0.1732576994636535</v>
       </c>
       <c r="Q3">
-        <v>720.3768242469081</v>
+        <v>894.543945601082</v>
       </c>
       <c r="R3">
-        <v>6483.391418222172</v>
+        <v>8050.895510409738</v>
       </c>
       <c r="S3">
-        <v>0.1091918981022151</v>
+        <v>0.1439115152885101</v>
       </c>
       <c r="T3">
-        <v>0.1091918981022151</v>
+        <v>0.1439115152885101</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>91.47356466666668</v>
+        <v>113.5893336666667</v>
       </c>
       <c r="H4">
-        <v>274.420694</v>
+        <v>340.768001</v>
       </c>
       <c r="I4">
-        <v>0.7914295280104694</v>
+        <v>0.8306211829777892</v>
       </c>
       <c r="J4">
-        <v>0.7914295280104694</v>
+        <v>0.8306211829777892</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.26072766666667</v>
+        <v>20.53856733333333</v>
       </c>
       <c r="N4">
-        <v>96.78218300000002</v>
+        <v>61.615702</v>
       </c>
       <c r="O4">
-        <v>0.5651818362340169</v>
+        <v>0.4518544470169792</v>
       </c>
       <c r="P4">
-        <v>0.565181836234017</v>
+        <v>0.4518544470169792</v>
       </c>
       <c r="Q4">
-        <v>2951.003758410557</v>
+        <v>2332.9621778613</v>
       </c>
       <c r="R4">
-        <v>26559.03382569501</v>
+        <v>20996.6596007517</v>
       </c>
       <c r="S4">
-        <v>0.4473015938907784</v>
+        <v>0.375319875315018</v>
       </c>
       <c r="T4">
-        <v>0.4473015938907784</v>
+        <v>0.375319875315018</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>62.82621699999999</v>
       </c>
       <c r="I5">
-        <v>0.181190866265331</v>
+        <v>0.1531387528565491</v>
       </c>
       <c r="J5">
-        <v>0.181190866265331</v>
+        <v>0.1531387528565491</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.944289</v>
+        <v>17.040132</v>
       </c>
       <c r="N5">
-        <v>50.832867</v>
+        <v>51.12039599999999</v>
       </c>
       <c r="O5">
-        <v>0.2968502282295034</v>
+        <v>0.3748878535193673</v>
       </c>
       <c r="P5">
-        <v>0.2968502282295034</v>
+        <v>0.3748878535193674</v>
       </c>
       <c r="Q5">
-        <v>354.8485258749043</v>
+        <v>356.8556769135479</v>
       </c>
       <c r="R5">
-        <v>3193.636732874138</v>
+        <v>3211.701092221931</v>
       </c>
       <c r="S5">
-        <v>0.05378655000396493</v>
+        <v>0.05740985834902458</v>
       </c>
       <c r="T5">
-        <v>0.05378655000396492</v>
+        <v>0.05740985834902458</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>62.82621699999999</v>
       </c>
       <c r="I6">
-        <v>0.181190866265331</v>
+        <v>0.1531387528565491</v>
       </c>
       <c r="J6">
-        <v>0.181190866265331</v>
+        <v>0.1531387528565491</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>23.625738</v>
       </c>
       <c r="O6">
-        <v>0.1379679355364798</v>
+        <v>0.1732576994636535</v>
       </c>
       <c r="P6">
-        <v>0.1379679355364798</v>
+        <v>0.1732576994636535</v>
       </c>
       <c r="Q6">
         <v>164.923971374794</v>
@@ -818,10 +818,10 @@
         <v>1484.315742373146</v>
       </c>
       <c r="S6">
-        <v>0.02499852975669412</v>
+        <v>0.02653246801865869</v>
       </c>
       <c r="T6">
-        <v>0.02499852975669411</v>
+        <v>0.02653246801865869</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>62.82621699999999</v>
       </c>
       <c r="I7">
-        <v>0.181190866265331</v>
+        <v>0.1531387528565491</v>
       </c>
       <c r="J7">
-        <v>0.181190866265331</v>
+        <v>0.1531387528565491</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.26072766666667</v>
+        <v>20.53856733333333</v>
       </c>
       <c r="N7">
-        <v>96.78218300000002</v>
+        <v>61.615702</v>
       </c>
       <c r="O7">
-        <v>0.5651818362340169</v>
+        <v>0.4518544470169792</v>
       </c>
       <c r="P7">
-        <v>0.565181836234017</v>
+        <v>0.4518544470169792</v>
       </c>
       <c r="Q7">
-        <v>675.6064923213014</v>
+        <v>430.1201627177037</v>
       </c>
       <c r="R7">
-        <v>6080.458430891711</v>
+        <v>3871.081464459333</v>
       </c>
       <c r="S7">
-        <v>0.102405786504672</v>
+        <v>0.06919642648886584</v>
       </c>
       <c r="T7">
-        <v>0.102405786504672</v>
+        <v>0.06919642648886583</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.164539666666667</v>
+        <v>2.220865666666667</v>
       </c>
       <c r="H8">
-        <v>9.493619000000001</v>
+        <v>6.662597</v>
       </c>
       <c r="I8">
-        <v>0.02737960572419959</v>
+        <v>0.01624006416566169</v>
       </c>
       <c r="J8">
-        <v>0.02737960572419959</v>
+        <v>0.01624006416566169</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.944289</v>
+        <v>17.040132</v>
       </c>
       <c r="N8">
-        <v>50.832867</v>
+        <v>51.12039599999999</v>
       </c>
       <c r="O8">
-        <v>0.2968502282295034</v>
+        <v>0.3748878535193673</v>
       </c>
       <c r="P8">
-        <v>0.2968502282295034</v>
+        <v>0.3748878535193674</v>
       </c>
       <c r="Q8">
-        <v>53.62087466396367</v>
+        <v>37.84384411426799</v>
       </c>
       <c r="R8">
-        <v>482.587871975673</v>
+        <v>340.594597028412</v>
       </c>
       <c r="S8">
-        <v>0.008127642208062466</v>
+        <v>0.006088202796081708</v>
       </c>
       <c r="T8">
-        <v>0.008127642208062466</v>
+        <v>0.006088202796081708</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.164539666666667</v>
+        <v>2.220865666666667</v>
       </c>
       <c r="H9">
-        <v>9.493619000000001</v>
+        <v>6.662597</v>
       </c>
       <c r="I9">
-        <v>0.02737960572419959</v>
+        <v>0.01624006416566169</v>
       </c>
       <c r="J9">
-        <v>0.02737960572419959</v>
+        <v>0.01624006416566169</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>23.625738</v>
       </c>
       <c r="O9">
-        <v>0.1379679355364798</v>
+        <v>0.1732576994636535</v>
       </c>
       <c r="P9">
-        <v>0.1379679355364798</v>
+        <v>0.1732576994636535</v>
       </c>
       <c r="Q9">
-        <v>24.921528351758</v>
+        <v>17.489863457954</v>
       </c>
       <c r="R9">
-        <v>224.293755165822</v>
+        <v>157.408771121586</v>
       </c>
       <c r="S9">
-        <v>0.003777507677570601</v>
+        <v>0.002813716156484662</v>
       </c>
       <c r="T9">
-        <v>0.003777507677570601</v>
+        <v>0.002813716156484662</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.164539666666667</v>
+        <v>2.220865666666667</v>
       </c>
       <c r="H10">
-        <v>9.493619000000001</v>
+        <v>6.662597</v>
       </c>
       <c r="I10">
-        <v>0.02737960572419959</v>
+        <v>0.01624006416566169</v>
       </c>
       <c r="J10">
-        <v>0.02737960572419959</v>
+        <v>0.01624006416566169</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.26072766666667</v>
+        <v>20.53856733333333</v>
       </c>
       <c r="N10">
-        <v>96.78218300000002</v>
+        <v>61.615702</v>
       </c>
       <c r="O10">
-        <v>0.5651818362340169</v>
+        <v>0.4518544470169792</v>
       </c>
       <c r="P10">
-        <v>0.565181836234017</v>
+        <v>0.4518544470169792</v>
       </c>
       <c r="Q10">
-        <v>102.0903523766975</v>
+        <v>45.61339903312155</v>
       </c>
       <c r="R10">
-        <v>918.8131713902773</v>
+        <v>410.520591298094</v>
       </c>
       <c r="S10">
-        <v>0.01547445583856652</v>
+        <v>0.007338145213095324</v>
       </c>
       <c r="T10">
-        <v>0.01547445583856653</v>
+        <v>0.007338145213095324</v>
       </c>
     </row>
   </sheetData>
